--- a/data/LLC Income and Expense Tracker.xlsx
+++ b/data/LLC Income and Expense Tracker.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bostonmedflight-my.sharepoint.com/personal/cm649_bostonmedflight_org/Documents/My stuff/LLC/OPP/Property app file/App v1.0.0/opp-finance-app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bostonmedflight-my.sharepoint.com/personal/cm649_bostonmedflight_org/Documents/My stuff/LLC/OPP/Property app file/App v1.0.0/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_78345ADA8F6C4D451A9A65AE2E2A2494E5657495" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCFA0F66-B2FE-45FE-8EBC-1193BC1E4187}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_78345ADA8F6C4D451A9A65AE2E2A2494E5657495" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FF060F6-C7F8-4967-80A8-C8DF9C042EEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="2610" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 OPP Income" sheetId="1" r:id="rId1"/>
     <sheet name="2025 OPP Expenses" sheetId="2" r:id="rId2"/>
     <sheet name="Expense Categories" sheetId="4" r:id="rId3"/>
+    <sheet name="Purchasers" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025 OPP Expenses'!$A$1:$G$140</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="267">
   <si>
     <t>Month</t>
   </si>
@@ -1662,8 +1663,8 @@
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4953,7 +4954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5326,4 +5327,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D549B321-3457-4C94-B3E3-53599BEC2BB8}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
+    <sortCondition ref="A2:A11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>